--- a/scene_cat_exp_2023.2/input_files/16_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/16_scenecat_memory_living_rooms_2.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>78.70454545454545</v>
+        <v>70.75</v>
       </c>
       <c r="N2">
-        <v>59.63636363636363</v>
+        <v>50.375</v>
       </c>
       <c r="O2">
-        <v>69.17045454545455</v>
+        <v>60.5625</v>
       </c>
       <c r="P2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -575,29 +575,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>86.70454545454545</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N3">
-        <v>72.40909090909091</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O3">
-        <v>79.55681818181819</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P3">
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -648,29 +648,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>86.62222222222222</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N4">
-        <v>70.02222222222223</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O4">
-        <v>78.32222222222222</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -704,46 +704,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>82.47619047619048</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N5">
-        <v>65.5</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O5">
-        <v>73.98809523809524</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -765,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -794,29 +789,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>64.11363636363636</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N6">
-        <v>43.04545454545455</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O6">
-        <v>53.57954545454545</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -850,41 +845,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_of8d6.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>85.53333333333333</v>
+        <v>26.04878048780488</v>
       </c>
       <c r="N7">
-        <v>67.97777777777777</v>
+        <v>19.14634146341463</v>
       </c>
       <c r="O7">
-        <v>76.75555555555556</v>
+        <v>22.59756097560975</v>
       </c>
       <c r="P7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -918,46 +918,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>55.26829268292683</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N8">
-        <v>34.19512195121951</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O8">
-        <v>44.73170731707317</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -979,27 +974,58 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/catch_22.jpg</t>
-        </is>
+          <t>stimuli/img_syam3.png</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>41.32432432432432</v>
+      </c>
+      <c r="N9">
+        <v>26.2972972972973</v>
+      </c>
+      <c r="O9">
+        <v>33.81081081081081</v>
+      </c>
+      <c r="P9">
+        <v>37</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1021,58 +1047,27 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
-        </is>
-      </c>
-      <c r="M10">
-        <v>86.08510638297872</v>
-      </c>
-      <c r="N10">
-        <v>65.95744680851064</v>
-      </c>
-      <c r="O10">
-        <v>76.02127659574468</v>
-      </c>
-      <c r="P10">
-        <v>47</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>9</v>
-      </c>
-      <c r="S10">
-        <v>9</v>
+          <t>stimuli/catch_27.jpg</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1094,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1106,46 +1101,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_qdln8.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>49.3695652173913</v>
+        <v>85.51162790697674</v>
       </c>
       <c r="N11">
-        <v>30.21739130434782</v>
+        <v>67.86046511627907</v>
       </c>
       <c r="O11">
-        <v>39.79347826086956</v>
+        <v>76.68604651162791</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1167,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1196,29 +1186,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_rg4in.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>81.73809523809524</v>
+        <v>49.3695652173913</v>
       </c>
       <c r="N12">
-        <v>62.73809523809524</v>
+        <v>30.21739130434782</v>
       </c>
       <c r="O12">
-        <v>72.23809523809524</v>
+        <v>39.79347826086956</v>
       </c>
       <c r="P12">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1240,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1269,29 +1259,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_kq9s9.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>68.78260869565217</v>
+        <v>62.30232558139535</v>
       </c>
       <c r="N13">
-        <v>47.56521739130435</v>
+        <v>39.97674418604651</v>
       </c>
       <c r="O13">
-        <v>58.17391304347827</v>
+        <v>51.13953488372093</v>
       </c>
       <c r="P13">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1386,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1415,29 +1405,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_2qhro.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>62.30232558139535</v>
+        <v>81.73809523809524</v>
       </c>
       <c r="N15">
-        <v>39.97674418604651</v>
+        <v>62.73809523809524</v>
       </c>
       <c r="O15">
-        <v>51.13953488372093</v>
+        <v>72.23809523809524</v>
       </c>
       <c r="P15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1459,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1471,46 +1461,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_7lz7m.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>93.81395348837209</v>
+        <v>51.5531914893617</v>
       </c>
       <c r="N16">
-        <v>78.27906976744185</v>
+        <v>32.87234042553192</v>
       </c>
       <c r="O16">
-        <v>86.04651162790697</v>
+        <v>42.21276595744681</v>
       </c>
       <c r="P16">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1532,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1561,29 +1546,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>70.75</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N17">
-        <v>50.375</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O17">
-        <v>60.5625</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1605,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1634,29 +1619,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_j4ttn.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>30.4468085106383</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="N18">
-        <v>23.4468085106383</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="O18">
-        <v>26.9468085106383</v>
+        <v>12.02380952380952</v>
       </c>
       <c r="P18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1678,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1707,29 +1692,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_of8d6.png</t>
+          <t>stimuli/img_rru0v.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>26.04878048780488</v>
+        <v>56.45238095238095</v>
       </c>
       <c r="N19">
-        <v>19.14634146341463</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="O19">
-        <v>22.59756097560975</v>
+        <v>47.94047619047619</v>
       </c>
       <c r="P19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1751,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1780,29 +1765,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>76.24444444444444</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N20">
-        <v>55.88888888888889</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O20">
-        <v>66.06666666666666</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1824,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1836,41 +1821,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_vh7v8.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>73.11363636363636</v>
+        <v>78.70454545454545</v>
       </c>
       <c r="N21">
-        <v>49.97727272727273</v>
+        <v>59.63636363636363</v>
       </c>
       <c r="O21">
-        <v>61.54545454545455</v>
+        <v>69.17045454545455</v>
       </c>
       <c r="P21">
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1892,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1904,46 +1894,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_syam3.png</t>
+          <t>stimuli/img_bf8nx.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>41.32432432432432</v>
+        <v>86.63414634146342</v>
       </c>
       <c r="N22">
-        <v>26.2972972972973</v>
+        <v>66.63414634146342</v>
       </c>
       <c r="O22">
-        <v>33.81081081081081</v>
+        <v>76.63414634146342</v>
       </c>
       <c r="P22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1965,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1977,41 +1962,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>86.23913043478261</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N23">
-        <v>67.17391304347827</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O23">
-        <v>76.70652173913044</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P23">
         <v>46</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2057,29 +2047,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>86.63414634146342</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N24">
-        <v>66.63414634146342</v>
+        <v>35.25</v>
       </c>
       <c r="O24">
-        <v>76.63414634146342</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P24">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2101,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2113,41 +2103,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_9oofc.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>51.5531914893617</v>
+        <v>82.47619047619048</v>
       </c>
       <c r="N25">
-        <v>32.87234042553192</v>
+        <v>65.5</v>
       </c>
       <c r="O25">
-        <v>42.21276595744681</v>
+        <v>73.98809523809524</v>
       </c>
       <c r="P25">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2198,29 +2193,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_24rt2.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>56.45238095238095</v>
+        <v>55.26829268292683</v>
       </c>
       <c r="N26">
-        <v>39.42857142857143</v>
+        <v>34.19512195121951</v>
       </c>
       <c r="O26">
-        <v>47.94047619047619</v>
+        <v>44.73170731707317</v>
       </c>
       <c r="P26">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2242,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2254,41 +2249,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_3jnt7.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>49.52272727272727</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N27">
-        <v>35.25</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O27">
-        <v>42.38636363636364</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P27">
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2339,29 +2339,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>12.61904761904762</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N28">
-        <v>11.42857142857143</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O28">
-        <v>12.02380952380952</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2383,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2407,20 +2407,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>85.51162790697674</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N29">
-        <v>67.86046511627907</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O29">
-        <v>76.68604651162791</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P29">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q29">
         <v>9</v>

--- a/scene_cat_exp_2023.2/input_files/16_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/16_scenecat_memory_living_rooms_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,49 +482,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>70.75</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N2">
-        <v>50.375</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O2">
-        <v>60.5625</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +532,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -546,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -575,20 +570,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_uxxo0.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>64.11363636363636</v>
+        <v>71.74418604651163</v>
       </c>
       <c r="N3">
-        <v>43.04545454545455</v>
+        <v>48.44186046511628</v>
       </c>
       <c r="O3">
-        <v>53.57954545454545</v>
+        <v>60.09302325581395</v>
       </c>
       <c r="P3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -610,7 +605,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -619,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,29 +643,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_5m6x4.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>30.4468085106383</v>
+        <v>80.23076923076923</v>
       </c>
       <c r="N4">
-        <v>23.4468085106383</v>
+        <v>58.41025641025641</v>
       </c>
       <c r="O4">
-        <v>26.9468085106383</v>
+        <v>69.32051282051282</v>
       </c>
       <c r="P4">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -692,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,44 +696,49 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>73.11363636363636</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N5">
-        <v>49.97727272727273</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O5">
-        <v>61.54545454545455</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,29 +789,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_2js6m.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>86.62222222222222</v>
+        <v>40.02777777777778</v>
       </c>
       <c r="N6">
-        <v>70.02222222222223</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="O6">
-        <v>78.32222222222222</v>
+        <v>30.45833333333334</v>
       </c>
       <c r="P6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -862,29 +862,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_of8d6.png</t>
+          <t>stimuli/img_x0u5z.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>26.04878048780488</v>
+        <v>92</v>
       </c>
       <c r="N7">
-        <v>19.14634146341463</v>
+        <v>78.16216216216216</v>
       </c>
       <c r="O7">
-        <v>22.59756097560975</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -906,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -930,29 +930,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_0eflx.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>85.53333333333333</v>
+        <v>76.05128205128206</v>
       </c>
       <c r="N8">
-        <v>67.97777777777777</v>
+        <v>53.53846153846154</v>
       </c>
       <c r="O8">
-        <v>76.75555555555556</v>
+        <v>64.7948717948718</v>
       </c>
       <c r="P8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -983,49 +983,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_syam3.png</t>
+          <t>stimuli/img_2dnfy.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>41.32432432432432</v>
+        <v>59.97297297297298</v>
       </c>
       <c r="N9">
-        <v>26.2972972972973</v>
+        <v>37.56756756756756</v>
       </c>
       <c r="O9">
-        <v>33.81081081081081</v>
+        <v>48.77027027027027</v>
       </c>
       <c r="P9">
         <v>37</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1033,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1047,27 +1042,58 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/catch_27.jpg</t>
-        </is>
+          <t>stimuli/img_th7xh.png</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>82.35897435897436</v>
+      </c>
+      <c r="N10">
+        <v>65.53846153846153</v>
+      </c>
+      <c r="O10">
+        <v>73.94871794871796</v>
+      </c>
+      <c r="P10">
+        <v>39</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1106,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1089,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1098,7 +1124,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1113,20 +1139,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_gqy6z.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>85.51162790697674</v>
+        <v>86.47368421052632</v>
       </c>
       <c r="N11">
-        <v>67.86046511627907</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="O11">
-        <v>76.68604651162791</v>
+        <v>77.44736842105263</v>
       </c>
       <c r="P11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -1148,7 +1174,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1157,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1166,49 +1192,44 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_q8u19.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>49.3695652173913</v>
+        <v>91.19512195121951</v>
       </c>
       <c r="N12">
-        <v>30.21739130434782</v>
+        <v>73.58536585365853</v>
       </c>
       <c r="O12">
-        <v>39.79347826086956</v>
+        <v>82.39024390243901</v>
       </c>
       <c r="P12">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1242,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1230,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1239,7 +1260,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1259,20 +1280,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>62.30232558139535</v>
+        <v>65.25</v>
       </c>
       <c r="N13">
-        <v>39.97674418604651</v>
+        <v>44.8</v>
       </c>
       <c r="O13">
-        <v>51.13953488372093</v>
+        <v>55.025</v>
       </c>
       <c r="P13">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -1294,7 +1315,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1303,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1312,7 +1333,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1332,29 +1353,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_wyctg.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>73.625</v>
+        <v>33.44736842105263</v>
       </c>
       <c r="N14">
-        <v>52.275</v>
+        <v>11.39473684210526</v>
       </c>
       <c r="O14">
-        <v>62.95</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="P14">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1388,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1376,7 +1397,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1385,49 +1406,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_0nckg.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>81.73809523809524</v>
+        <v>65.94285714285714</v>
       </c>
       <c r="N15">
-        <v>62.73809523809524</v>
+        <v>41.17142857142857</v>
       </c>
       <c r="O15">
-        <v>72.23809523809524</v>
+        <v>53.55714285714285</v>
       </c>
       <c r="P15">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1440,7 +1456,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1449,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1458,35 +1474,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>51.5531914893617</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N16">
-        <v>32.87234042553192</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O16">
-        <v>42.21276595744681</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -1508,7 +1529,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1517,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1526,49 +1547,44 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_g2akb.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>76.24444444444444</v>
+        <v>87.875</v>
       </c>
       <c r="N17">
-        <v>55.88888888888889</v>
+        <v>79</v>
       </c>
       <c r="O17">
-        <v>66.06666666666666</v>
+        <v>83.4375</v>
       </c>
       <c r="P17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1581,7 +1597,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1590,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1599,7 +1615,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1619,29 +1635,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_qgbyn.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>12.61904761904762</v>
+        <v>65.08108108108108</v>
       </c>
       <c r="N18">
-        <v>11.42857142857143</v>
+        <v>40.10810810810811</v>
       </c>
       <c r="O18">
-        <v>12.02380952380952</v>
+        <v>52.5945945945946</v>
       </c>
       <c r="P18">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1670,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1663,58 +1679,27 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
-        </is>
-      </c>
-      <c r="M19">
-        <v>56.45238095238095</v>
-      </c>
-      <c r="N19">
-        <v>39.42857142857143</v>
-      </c>
-      <c r="O19">
-        <v>47.94047619047619</v>
-      </c>
-      <c r="P19">
-        <v>42</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="R19">
-        <v>4</v>
-      </c>
-      <c r="S19">
-        <v>4</v>
+          <t>stimuli/catch_15.jpg</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1712,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1736,7 +1721,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1745,7 +1730,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,29 +1750,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>86.08510638297872</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N20">
-        <v>65.95744680851064</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O20">
-        <v>76.02127659574468</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P20">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1800,7 +1785,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1809,7 +1794,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1818,49 +1803,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_awuev.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>78.70454545454545</v>
+        <v>44.21052631578947</v>
       </c>
       <c r="N21">
-        <v>59.63636363636363</v>
+        <v>24.26315789473684</v>
       </c>
       <c r="O21">
-        <v>69.17045454545455</v>
+        <v>34.23684210526316</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1873,7 +1853,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1882,7 +1862,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1891,7 +1871,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1906,29 +1886,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_wijef.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>86.63414634146342</v>
+        <v>69.875</v>
       </c>
       <c r="N22">
-        <v>66.63414634146342</v>
+        <v>48.025</v>
       </c>
       <c r="O22">
-        <v>76.63414634146342</v>
+        <v>58.95</v>
       </c>
       <c r="P22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1921,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1950,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1959,49 +1939,44 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_psgf7.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>68.78260869565217</v>
+        <v>26</v>
       </c>
       <c r="N23">
-        <v>47.56521739130435</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="O23">
-        <v>58.17391304347827</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="P23">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +1989,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2023,7 +1998,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2032,7 +2007,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2047,20 +2022,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_3jnt7.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>49.52272727272727</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N24">
-        <v>35.25</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O24">
-        <v>42.38636363636364</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P24">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -2082,7 +2057,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2091,7 +2066,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2100,7 +2075,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2120,29 +2095,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_a9acb.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>82.47619047619048</v>
+        <v>77.11428571428571</v>
       </c>
       <c r="N25">
-        <v>65.5</v>
+        <v>58.42857142857143</v>
       </c>
       <c r="O25">
-        <v>73.98809523809524</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="P25">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2130,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2164,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2173,49 +2148,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_iqmdm.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>55.26829268292683</v>
+        <v>79.38888888888889</v>
       </c>
       <c r="N26">
-        <v>34.19512195121951</v>
+        <v>58.36111111111111</v>
       </c>
       <c r="O26">
-        <v>44.73170731707317</v>
+        <v>68.875</v>
       </c>
       <c r="P26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2228,7 +2198,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2237,7 +2207,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2246,7 +2216,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2266,29 +2236,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>86.70454545454545</v>
+        <v>80.75</v>
       </c>
       <c r="N27">
-        <v>72.40909090909091</v>
+        <v>61.475</v>
       </c>
       <c r="O27">
-        <v>79.55681818181819</v>
+        <v>71.1125</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2271,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2310,7 +2280,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2319,49 +2289,44 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>93.81395348837209</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N28">
-        <v>78.27906976744185</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O28">
-        <v>86.04651162790697</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2374,7 +2339,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2383,7 +2348,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2392,7 +2357,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2407,20 +2372,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_h0px5.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>86.23913043478261</v>
+        <v>84.30232558139535</v>
       </c>
       <c r="N29">
-        <v>67.17391304347827</v>
+        <v>69.13953488372093</v>
       </c>
       <c r="O29">
-        <v>76.70652173913044</v>
+        <v>76.72093023255815</v>
       </c>
       <c r="P29">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q29">
         <v>9</v>
@@ -2430,6 +2395,925 @@
       </c>
       <c r="S29">
         <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>256</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_qbdgm.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>76.88095238095238</v>
+      </c>
+      <c r="N30">
+        <v>60.40476190476191</v>
+      </c>
+      <c r="O30">
+        <v>68.64285714285714</v>
+      </c>
+      <c r="P30">
+        <v>42</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>257</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_6ddrx.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>82.2</v>
+      </c>
+      <c r="N31">
+        <v>63.68571428571428</v>
+      </c>
+      <c r="O31">
+        <v>72.94285714285715</v>
+      </c>
+      <c r="P31">
+        <v>35</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>258</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_71mhq.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>69.34210526315789</v>
+      </c>
+      <c r="N32">
+        <v>47.02631578947368</v>
+      </c>
+      <c r="O32">
+        <v>58.18421052631579</v>
+      </c>
+      <c r="P32">
+        <v>38</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>259</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_a8y4y.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>75.15789473684211</v>
+      </c>
+      <c r="N33">
+        <v>53.76315789473684</v>
+      </c>
+      <c r="O33">
+        <v>64.46052631578948</v>
+      </c>
+      <c r="P33">
+        <v>38</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>260</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_h0hbk.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>86.80952380952381</v>
+      </c>
+      <c r="N34">
+        <v>69.19047619047619</v>
+      </c>
+      <c r="O34">
+        <v>78</v>
+      </c>
+      <c r="P34">
+        <v>42</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="R34">
+        <v>9</v>
+      </c>
+      <c r="S34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>261</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_9z99v.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>81.15625</v>
+      </c>
+      <c r="N35">
+        <v>64.78125</v>
+      </c>
+      <c r="O35">
+        <v>72.96875</v>
+      </c>
+      <c r="P35">
+        <v>32</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>262</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_le8uf.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>12.88888888888889</v>
+      </c>
+      <c r="N36">
+        <v>9.222222222222221</v>
+      </c>
+      <c r="O36">
+        <v>11.05555555555556</v>
+      </c>
+      <c r="P36">
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>263</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_2pk6v.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>85.08108108108108</v>
+      </c>
+      <c r="N37">
+        <v>66.16216216216216</v>
+      </c>
+      <c r="O37">
+        <v>75.62162162162161</v>
+      </c>
+      <c r="P37">
+        <v>37</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>9</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>264</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_b89t4.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>71.41463414634147</v>
+      </c>
+      <c r="N38">
+        <v>47.85365853658536</v>
+      </c>
+      <c r="O38">
+        <v>59.63414634146342</v>
+      </c>
+      <c r="P38">
+        <v>41</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>265</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_ozxpp.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>26.26470588235294</v>
+      </c>
+      <c r="N39">
+        <v>11.47058823529412</v>
+      </c>
+      <c r="O39">
+        <v>18.86764705882353</v>
+      </c>
+      <c r="P39">
+        <v>34</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>266</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_ybbmx.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>55.24324324324324</v>
+      </c>
+      <c r="N40">
+        <v>36.75675675675676</v>
+      </c>
+      <c r="O40">
+        <v>46</v>
+      </c>
+      <c r="P40">
+        <v>37</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>267</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_rvssl.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>74.25</v>
+      </c>
+      <c r="N41">
+        <v>54.33333333333334</v>
+      </c>
+      <c r="O41">
+        <v>64.29166666666667</v>
+      </c>
+      <c r="P41">
+        <v>36</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>268</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_oou46.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>75.70270270270271</v>
+      </c>
+      <c r="N42">
+        <v>54.86486486486486</v>
+      </c>
+      <c r="O42">
+        <v>65.28378378378379</v>
+      </c>
+      <c r="P42">
+        <v>37</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
